--- a/mathTransformed/HMPSTT_(2019-09-04)_47_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-09-04)_47_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>G U H S AtnoorAfzalpur</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -510,6 +520,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>G P U C (H S) Mugthihalli</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Chikmagalur</t>
         </is>
       </c>
@@ -537,6 +552,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>S M R High School HebbalagereChannagiri</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -562,7 +582,8 @@
           <t>DEEPA K</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>M G N Pai High School Sagar Shimoga</t>
         </is>
@@ -589,7 +610,8 @@
           <t>DILSHAD BEGUM B</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>G J C B H S Davanagere</t>
         </is>
@@ -616,7 +638,8 @@
           <t>A G GUNDAGI</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>Bharat High School Dharwad</t>
         </is>
@@ -645,6 +668,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Govt. Adarsha Vidyalaya Chittapur</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -672,6 +700,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>G H S KodliChincholi</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Kalburgi</t>
         </is>
       </c>
@@ -699,6 +732,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>G J C H S PanchanahalliKadur</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Chikkamagaluru</t>
         </is>
       </c>
@@ -726,6 +764,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>G H S HarkudBasavakalyan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -753,6 +796,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>G H S ManthalBadavakalyan</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -780,6 +828,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G H S JeganehalliBirur Block Kadur</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Chikmagalur</t>
         </is>
       </c>
@@ -807,6 +860,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>S B D H S Arsikere</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -834,6 +892,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>Nalanda P U CollegeHigh School SectionSagar</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -861,6 +924,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Mothiveerappa Govt. P U College</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -888,6 +956,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>Govt. High School KalgiChittapur</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -915,6 +988,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>S V P S B C Girls High School Badami</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Bagalakot</t>
         </is>
       </c>
@@ -940,7 +1018,8 @@
           <t>MANJULA M K</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>Saint Pauls Girl High School Davanagere</t>
         </is>
@@ -967,7 +1046,8 @@
           <t>MARGARET ANCY</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>Basel Mission Girls High School Dharwad</t>
         </is>
@@ -996,6 +1076,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>G H S Ekamba Aurad</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1023,6 +1108,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>S S High School AgarkhedIndi</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Vijaypura</t>
         </is>
       </c>
@@ -1050,6 +1140,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>S M S High School YadavanahallyArsikere</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1077,6 +1172,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Govt. High School Veerapur</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1104,6 +1204,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>G J C (H S) Yagati Kadur</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Chikkamagaluru</t>
         </is>
       </c>
@@ -1131,6 +1236,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Vishvodaya High School Krishnaiahna DoddiKanakapura</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -1158,6 +1268,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>Shree J B K High School Basavakalyan</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1185,6 +1300,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Govt. H S MurkiAurad</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1212,6 +1332,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>R M B P U College (H S) AthargaIndi</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Vijayapura</t>
         </is>
       </c>
@@ -1239,6 +1364,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>Malanad High School GoutampurSagar</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1266,6 +1396,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>Sri Kalmarudeswara High SchoolMarle</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Chikmagalur</t>
         </is>
       </c>
@@ -1293,6 +1428,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>CholachaguddBadami</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Bagalakote</t>
         </is>
       </c>
@@ -1320,6 +1460,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>G H S GadikeshwarChincholi</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Kalburgai</t>
         </is>
       </c>
@@ -1347,6 +1492,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>G B H S ShahabadChittapur</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1374,6 +1524,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>Matru Manidr H S Chincholi</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1401,6 +1556,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>Bharthi Viswaseva SadanHigh School Somapur</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1428,6 +1588,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>G H S NimbargaAland</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Kalburgi</t>
         </is>
       </c>
@@ -1455,6 +1620,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>S B P U College BolegaonIndi</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Vijayapura</t>
         </is>
       </c>
@@ -1482,6 +1652,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>G H S Satanoor Chittapur</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -1509,6 +1684,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>V S High School KedalasaraSagar</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1536,6 +1716,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>G P U C HalebeeduBelur</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1563,6 +1748,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>S M High School TerdalJamakhandi</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1588,7 +1778,8 @@
           <t>UDAYA KUMAR H S</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>Sree Rama High Schoo</t>
         </is>
@@ -1606,6 +1797,11 @@
         </is>
       </c>
       <c r="F45" t="inlineStr">
+        <is>
+          <t>HasadurgaKanakapura</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>Ramanagara</t>
         </is>
@@ -1634,6 +1830,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>G J C JodihochihalliBeerur BlockKadur</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Chikmagalore</t>
         </is>
       </c>
@@ -1661,6 +1862,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>S S P U College (H S) Indi</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Bijapur</t>
         </is>
       </c>
@@ -1688,6 +1894,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>G J C Kadur</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Chikkamagalur</t>
         </is>
       </c>
@@ -1716,6 +1927,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>SchoolHubli</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1741,7 +1957,8 @@
           <t>VIDYAVATI M PATTANSHETTI</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>Jayadevitai G H S Dharwad</t>
         </is>

--- a/mathTransformed/HMPSTT_(2019-09-04)_47_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-09-04)_47_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,6 @@
           <t>DEEPA K</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
           <t>M G N Pai High School Sagar Shimoga</t>
@@ -610,7 +609,6 @@
           <t>DILSHAD BEGUM B</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>G J C B H S Davanagere</t>
@@ -638,7 +636,6 @@
           <t>A G GUNDAGI</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>Bharat High School Dharwad</t>
@@ -673,7 +670,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -705,7 +702,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Kalburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -737,7 +734,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Chikkamagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -929,7 +926,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -961,7 +958,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -993,7 +990,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bagalakot</t>
+          <t>Bagalkot</t>
         </is>
       </c>
     </row>
@@ -1018,7 +1015,6 @@
           <t>MANJULA M K</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
           <t>Saint Pauls Girl High School Davanagere</t>
@@ -1046,7 +1042,6 @@
           <t>MARGARET ANCY</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
           <t>Basel Mission Girls High School Dharwad</t>
@@ -1209,7 +1204,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Chikkamagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1492,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1524,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1588,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Kalburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1652,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1773,6 @@
           <t>UDAYA KUMAR H S</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
           <t>Sree Rama High Schoo</t>
@@ -1899,7 +1893,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Chikkamagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1957,7 +1951,6 @@
           <t>VIDYAVATI M PATTANSHETTI</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
           <t>Jayadevitai G H S Dharwad</t>

--- a/mathTransformed/HMPSTT_(2019-09-04)_47_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-09-04)_47_4.xlsx
@@ -525,7 +525,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chikmagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>M G N Pai High School Sagar Shimoga</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>G J C B H S Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Bharat High School Dharwad</t>
+          <t>Dharwad</t>
         </is>
       </c>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chikmagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -894,7 +894,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Saint Pauls Girl High School Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Basel Mission Girls High School Dharwad</t>
+          <t>Dharwad</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Vijaypura</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Vijayapura</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Chikmagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Bagalakote</t>
+          <t>Bagalkot</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Kalburgai</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Vijayapura</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Chikmagalore</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Bijapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Jayadevitai G H S Dharwad</t>
+          <t>Dharwad</t>
         </is>
       </c>
     </row>
